--- a/venv/Include/mahasiswa.xlsx
+++ b/venv/Include/mahasiswa.xlsx
@@ -14,93 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Kode Matakuliah</t>
-  </si>
-  <si>
     <t>Matakuliah</t>
   </si>
   <si>
     <t>SKS</t>
   </si>
   <si>
-    <t>Indeks</t>
-  </si>
-  <si>
-    <t>Nilai</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>IPK</t>
-  </si>
-  <si>
-    <t>TIC030304</t>
+    <t>Mahasiswa</t>
+  </si>
+  <si>
+    <t>AUGMENTED REALITY</t>
+  </si>
+  <si>
+    <t>COMPUTER VISION</t>
   </si>
   <si>
     <t>DATA WAREHOUSE</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>TIC035303</t>
-  </si>
-  <si>
-    <t>COMPUTER VISION</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>TIC035304</t>
+    <t>ETIKA PROFESI</t>
+  </si>
+  <si>
+    <t>NATURAL LANGUAGE PROCESSING</t>
+  </si>
+  <si>
+    <t>PRAKTIKUM PROGMOB</t>
+  </si>
+  <si>
+    <t>SOFT COMPUTING</t>
+  </si>
+  <si>
+    <t>STKI</t>
   </si>
   <si>
     <t>TEKNOLOGI SENSOR DIVAIS</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>TIC035305</t>
-  </si>
-  <si>
-    <t>SOFT COMPUTING</t>
-  </si>
-  <si>
-    <t>TIC035306</t>
-  </si>
-  <si>
-    <t>STKI</t>
-  </si>
-  <si>
-    <t>TIC039301</t>
-  </si>
-  <si>
-    <t>AUGMENTED REALITY</t>
-  </si>
-  <si>
-    <t>TIC039307</t>
-  </si>
-  <si>
-    <t>NATURAL LANGUAGE PROCESSING</t>
-  </si>
-  <si>
-    <t>TIU035134</t>
-  </si>
-  <si>
-    <t>PRAKTIKUM PROGMOB</t>
-  </si>
-  <si>
-    <t>TIU037239</t>
-  </si>
-  <si>
-    <t>ETIKA PROFESI</t>
   </si>
 </sst>
 </file>
@@ -432,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,251 +403,131 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10.5</v>
-      </c>
-      <c r="G2">
-        <v>3.54167</v>
-      </c>
-      <c r="H2">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>3.54167</v>
-      </c>
-      <c r="H3">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>3.54167</v>
-      </c>
-      <c r="H4">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>3.54167</v>
-      </c>
-      <c r="H5">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10.5</v>
-      </c>
-      <c r="G6">
-        <v>3.54167</v>
-      </c>
-      <c r="H6">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10.5</v>
-      </c>
-      <c r="G7">
-        <v>3.54167</v>
-      </c>
-      <c r="H7">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>3.54167</v>
-      </c>
-      <c r="H8">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>3.5</v>
-      </c>
-      <c r="G9">
-        <v>3.54167</v>
-      </c>
-      <c r="H9">
-        <v>3.54167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>3.54167</v>
-      </c>
-      <c r="H10">
-        <v>3.54167</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
